--- a/BalanceSheet/QRVO_bal.xlsx
+++ b/BalanceSheet/QRVO_bal.xlsx
@@ -424,19 +424,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-2993000.0</v>
+        <v>479000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>49287000.0</v>
+        <v>477000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-7443000.0</v>
+        <v>524000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-34611000.0</v>
+        <v>517000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2989000.0</v>
+        <v>480000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>485284000.0</v>
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>19367000.0</v>
+        <v>302000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>51559000.0</v>
+        <v>242000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-35329000.0</v>
+        <v>226000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-26298000.0</v>
+        <v>247000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>45924000.0</v>
+        <v>239000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>213936000.0</v>
@@ -2523,7 +2523,7 @@
         <v>-15705000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-9892000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8310000.0</v>
